--- a/documentos-projeto/banco_dados/dicionarios-de-dados.xlsx
+++ b/documentos-projeto/banco_dados/dicionarios-de-dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="13080"/>
+    <workbookView windowWidth="27945" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
   <si>
     <t>tb_cidades</t>
   </si>
@@ -295,6 +295,12 @@
     <t>Contém o código dos produtos</t>
   </si>
   <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Contém o nome dos produtos</t>
+  </si>
+  <si>
     <t>descricao_produto</t>
   </si>
   <si>
@@ -322,6 +328,12 @@
     <t>Contém o código das subcategorias da tabela subcategoria</t>
   </si>
   <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>Contém o caminho da imagem dos produtos</t>
+  </si>
+  <si>
     <t>tb_categorias</t>
   </si>
   <si>
@@ -352,6 +364,21 @@
     <t>Contém o nome das subcategorias</t>
   </si>
   <si>
+    <t>tb_kits</t>
+  </si>
+  <si>
+    <t>cod_kit</t>
+  </si>
+  <si>
+    <t>Contém o código dos kits</t>
+  </si>
+  <si>
+    <t>Contém o nome dos kits</t>
+  </si>
+  <si>
+    <t>Contém a descrição dos kits</t>
+  </si>
+  <si>
     <t>tb_kits_produtos</t>
   </si>
   <si>
@@ -361,7 +388,19 @@
     <t>Contém o código dos kits produtos</t>
   </si>
   <si>
-    <t>Contém a quantidade de produtos dentro do kit</t>
+    <t>cod_categoria_fk</t>
+  </si>
+  <si>
+    <t>cod_subcategoria_fk</t>
+  </si>
+  <si>
+    <t>Contém o código dos kits da tabela kits</t>
+  </si>
+  <si>
+    <t>cod_produto_fk</t>
+  </si>
+  <si>
+    <t>Contém a quantidade dos produtos</t>
   </si>
 </sst>
 </file>
@@ -369,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -389,22 +428,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,44 +439,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,10 +476,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,9 +491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,8 +506,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,8 +557,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,19 +593,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +701,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,25 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,19 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,91 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,11 +839,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +883,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,32 +920,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,172 +936,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,66 +1108,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1391,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1873,15 +1912,15 @@
       <c r="G25" s="6"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:7">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:7">
       <c r="A28" s="4" t="s">
@@ -2048,15 +2087,15 @@
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:7">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:7">
       <c r="A38" s="4" t="s">
@@ -2164,15 +2203,15 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:7">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:7">
       <c r="A45" s="4" t="s">
@@ -2226,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2239,20 +2278,18 @@
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>13</v>
@@ -2260,15 +2297,17 @@
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
         <v>97</v>
@@ -2282,14 +2321,12 @@
         <v>98</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
         <v>99</v>
@@ -2319,259 +2356,456 @@
         <v>13</v>
       </c>
     </row>
+    <row r="52" ht="18" customHeight="1" spans="1:7">
+      <c r="A52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="53" ht="18" customHeight="1" spans="1:7">
-      <c r="A53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" ht="18" customHeight="1" spans="1:7">
-      <c r="A54" s="4" t="s">
+      <c r="A53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="5">
+        <v>50</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="18" customHeight="1" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" ht="18" customHeight="1" spans="1:7">
+      <c r="A56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:7">
-      <c r="A55" s="5" t="s">
+    <row r="57" ht="18" customHeight="1" spans="1:7">
+      <c r="A57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="18" customHeight="1" spans="1:7">
+      <c r="A58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="5">
+        <v>50</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="18" customHeight="1" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" ht="18" customHeight="1" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" ht="18" customHeight="1" spans="1:7">
+      <c r="A62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="18" customHeight="1" spans="1:7">
+      <c r="A63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="5">
+        <v>50</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="1" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" ht="15" spans="1:7">
+      <c r="A66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:7">
+      <c r="A67" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:7">
+      <c r="A68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="7">
+        <v>50</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:7">
+      <c r="A69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="7">
+        <v>100</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" ht="18" customHeight="1" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" ht="18" customHeight="1" spans="1:7">
+      <c r="A72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" ht="18" customHeight="1" spans="1:7">
+      <c r="A73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" ht="18" customHeight="1" spans="1:7">
+      <c r="A74" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" ht="18" customHeight="1" spans="1:7">
+      <c r="A75" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="G75" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:7">
+      <c r="A76" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" ht="18" customHeight="1" spans="1:7">
-      <c r="A56" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="5">
-        <v>50</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" ht="18" customHeight="1" spans="1:7">
-      <c r="A58" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" ht="18" customHeight="1" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" ht="18" customHeight="1" spans="1:7">
-      <c r="A60" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="D76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="1:7">
+      <c r="A77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" ht="18" customHeight="1" spans="1:7">
-      <c r="A61" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="5">
-        <v>50</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" ht="18" customHeight="1" spans="1:7">
-      <c r="A63" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" ht="18" customHeight="1" spans="1:7">
-      <c r="A64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" ht="18" customHeight="1" spans="1:7">
-      <c r="A65" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="D77" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:7">
+      <c r="A78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" ht="18" customHeight="1" spans="1:7">
-      <c r="A66" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" ht="18" customHeight="1" spans="1:7">
-      <c r="A67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A71:G71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/documentos-projeto/banco_dados/dicionarios-de-dados.xlsx
+++ b/documentos-projeto/banco_dados/dicionarios-de-dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="126">
   <si>
     <t>tb_cidades</t>
   </si>
@@ -40,7 +40,7 @@
     <t>OBRIGATÓRIO</t>
   </si>
   <si>
-    <t>codcid</t>
+    <t>id</t>
   </si>
   <si>
     <t>INT</t>
@@ -58,7 +58,7 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>nome_cid</t>
+    <t>nome</t>
   </si>
   <si>
     <t>VARCHAR</t>
@@ -67,7 +67,7 @@
     <t>Nome das cidades</t>
   </si>
   <si>
-    <t>estado_cid</t>
+    <t>estado</t>
   </si>
   <si>
     <t>CHECK(PR, RS, SC)</t>
@@ -79,7 +79,7 @@
     <t>tb_usuarios</t>
   </si>
   <si>
-    <t>cod_cliente</t>
+    <t>cod_usuario</t>
   </si>
   <si>
     <t>Contém o código dos usuários</t>
@@ -295,9 +295,6 @@
     <t>Contém o código dos produtos</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Contém o nome dos produtos</t>
   </si>
   <si>
@@ -386,12 +383,6 @@
   </si>
   <si>
     <t>Contém o código dos kits produtos</t>
-  </si>
-  <si>
-    <t>cod_categoria_fk</t>
-  </si>
-  <si>
-    <t>cod_subcategoria_fk</t>
   </si>
   <si>
     <t>Contém o código dos kits da tabela kits</t>
@@ -1430,10 +1421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2259,7 +2250,7 @@
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>15</v>
@@ -2270,7 +2261,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -2278,7 +2269,7 @@
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>15</v>
@@ -2289,7 +2280,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>13</v>
@@ -2310,7 +2301,7 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -2318,7 +2309,7 @@
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:7">
       <c r="A50" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>75</v>
@@ -2329,7 +2320,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>13</v>
@@ -2337,7 +2328,7 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:7">
       <c r="A51" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>9</v>
@@ -2350,7 +2341,7 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -2358,7 +2349,7 @@
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:7">
       <c r="A52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>9</v>
@@ -2371,7 +2362,7 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>13</v>
@@ -2379,7 +2370,7 @@
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:7">
       <c r="A53" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>15</v>
@@ -2390,7 +2381,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
@@ -2398,7 +2389,7 @@
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2432,7 +2423,7 @@
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:7">
       <c r="A57" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>9</v>
@@ -2445,7 +2436,7 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -2453,7 +2444,7 @@
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:7">
       <c r="A58" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>15</v>
@@ -2464,7 +2455,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>13</v>
@@ -2472,7 +2463,7 @@
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2506,7 +2497,7 @@
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:7">
       <c r="A62" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>9</v>
@@ -2519,7 +2510,7 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>13</v>
@@ -2527,7 +2518,7 @@
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:7">
       <c r="A63" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>15</v>
@@ -2538,7 +2529,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>13</v>
@@ -2546,7 +2537,7 @@
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2580,7 +2571,7 @@
     </row>
     <row r="67" ht="15" spans="1:7">
       <c r="A67" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>9</v>
@@ -2593,7 +2584,7 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>13</v>
@@ -2601,7 +2592,7 @@
     </row>
     <row r="68" ht="15" spans="1:7">
       <c r="A68" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>15</v>
@@ -2612,7 +2603,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>13</v>
@@ -2620,7 +2611,7 @@
     </row>
     <row r="69" ht="15" spans="1:7">
       <c r="A69" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>15</v>
@@ -2631,7 +2622,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>13</v>
@@ -2639,7 +2630,7 @@
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2673,7 +2664,7 @@
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:7">
       <c r="A73" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>9</v>
@@ -2686,15 +2677,15 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:7">
+    <row r="74" ht="15" spans="1:7">
       <c r="A74" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>9</v>
@@ -2707,15 +2698,15 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:7">
+    <row r="75" ht="15" spans="1:7">
       <c r="A75" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>9</v>
@@ -2728,7 +2719,7 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>13</v>
@@ -2736,7 +2727,7 @@
     </row>
     <row r="76" ht="15" spans="1:7">
       <c r="A76" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>9</v>
@@ -2744,54 +2735,12 @@
       <c r="C76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" ht="15" spans="1:7">
-      <c r="A77" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" ht="15" spans="1:7">
-      <c r="A78" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
     </row>
